--- a/capstone-backend-code/CapstoneBackend/ExcelAlumnos.xlsx
+++ b/capstone-backend-code/CapstoneBackend/ExcelAlumnos.xlsx
@@ -1,35 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B0A7F4-14FD-4862-95F3-4CA437714B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{93C99AFE-1AF1-DE49-9832-B2A6FAFA2A81}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="bFChXTdHOLp47C3Ev8MFMf0qaf9iAUZOOeOXnZQaz1c="/>
     </ext>
   </extLst>
 </workbook>
@@ -161,39 +141,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,76 +184,66 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
@@ -294,113 +267,19 @@
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="467886"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Narrow"/>
+        <a:ea typeface="Aptos Narrow"/>
+        <a:cs typeface="Aptos Narrow"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Narrow"/>
+        <a:ea typeface="Aptos Narrow"/>
+        <a:cs typeface="Aptos Narrow"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,6 +341,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -470,13 +356,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -541,51 +420,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F559D3D-975A-564B-A8A5-EAB422957CBF}">
-  <dimension ref="A1:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.69921875" bestFit="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="37.0"/>
+    <col customWidth="1" min="2" max="2" width="10.56"/>
+    <col customWidth="1" min="3" max="3" width="28.67"/>
+    <col customWidth="1" min="4" max="26" width="10.56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,9 +456,9 @@
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="4">
-        <v>45901</v>
+        <v>45901.0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -619,7 +473,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -634,7 +488,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
@@ -651,7 +505,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -666,7 +520,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -685,7 +539,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -704,7 +558,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -723,7 +577,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -742,7 +596,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -757,7 +611,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -798,9 +652,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
@@ -809,35 +663,35 @@
         <v>24</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H12" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I12" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J12" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -846,35 +700,35 @@
         <v>26</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H13" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
@@ -883,33 +737,33 @@
         <v>28</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H14" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I14" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -924,7 +778,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -941,7 +795,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
@@ -958,7 +812,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -975,7 +829,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -992,7 +846,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
@@ -1009,7 +863,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
@@ -1026,7 +880,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
@@ -1043,7 +897,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
@@ -1060,7 +914,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
@@ -1077,7 +931,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -1094,7 +948,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
@@ -1112,7 +966,9 @@
       <c r="M26" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>